--- a/沥青/eta/沥青月差（主力-次主力）_月度数据.xlsx
+++ b/沥青/eta/沥青月差（主力-次主力）_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-1.7</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-4</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>22.4</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="5">
@@ -523,7 +523,7 @@
         <v>8.4</v>
       </c>
       <c r="C7" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8">
@@ -562,7 +562,7 @@
         <v>-0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>2.1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>-8</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="14">
@@ -692,7 +692,7 @@
         <v>-1.1</v>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="21">
@@ -718,7 +718,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-9.1</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="23">
